--- a/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Nedsatt arbeidsevne/2025-02-15.xlsx
+++ b/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Nedsatt arbeidsevne/2025-02-15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Nedsatt arbeidsevne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CB1A401-C0B9-4203-B9F7-9F4BB5A190C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{8CB1A401-C0B9-4203-B9F7-9F4BB5A190C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80BD1532-1FBC-4031-8ED8-0E99D34D1C00}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="5" xr2:uid="{F02B4163-B96A-4A55-9456-5A40C625088D}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{F02B4163-B96A-4A55-9456-5A40C625088D}"/>
   </bookViews>
   <sheets>
     <sheet name="Nedsatt 18 - 66 år fylker" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,10 +629,17 @@
   <dimension ref="A2:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2118,11 +2125,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3218207C-A0BA-449D-AA2C-058D4985E58C}">
   <dimension ref="A2:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3609,10 +3620,14 @@
   <dimension ref="A2:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5313,6 +5328,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8096,11 +8114,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5A6512-7326-462E-B811-CFDD394616E9}">
   <dimension ref="A2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
